--- a/Revision Timetable/FOUNDATION Tutee Revision.xlsx
+++ b/Revision Timetable/FOUNDATION Tutee Revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benaustin/Documents/GitHub/maths-bank/Revision Timetable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341EF422-F1D6-BD46-A476-A9FD22D3AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1128522B-CEC0-B54F-BD13-E2E6523DE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="1600" windowWidth="23300" windowHeight="14860" xr2:uid="{DAC51AF4-BDE5-AC44-BF29-D3F38DE55743}"/>
+    <workbookView xWindow="2820" yWindow="660" windowWidth="23300" windowHeight="16140" xr2:uid="{DAC51AF4-BDE5-AC44-BF29-D3F38DE55743}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation Revision Timetable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="175">
   <si>
     <t>Monday</t>
   </si>
@@ -2912,6 +2912,333 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,32 +3266,14 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2974,315 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3328,16 +3328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590697</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14766</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177210</xdr:rowOff>
+      <xdr:rowOff>147675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>310117</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>324883</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>118140</xdr:rowOff>
+      <xdr:rowOff>88605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3353,12 +3353,28 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590697" y="177210"/>
-          <a:ext cx="4445001" cy="354418"/>
+          <a:off x="2968254" y="147675"/>
+          <a:ext cx="4445001" cy="546395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7C7C7C"/>
+        </a:solidFill>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43137"/>
+            </a:srgbClr>
+          </a:outerShdw>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3382,21 +3398,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
             <a:t>Click</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
             <a:t> for </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
             <a:t>School</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
             <a:t> Exam Timetable</a:t>
           </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600" b="1" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3875,7 +3892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D6B24-1E9A-4246-A2F0-1BAEDC59A97C}">
-  <dimension ref="B3:W55"/>
+  <dimension ref="B2:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3892,64 +3909,69 @@
     <col min="32" max="16384" width="6.6640625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:23" ht="31">
+      <c r="B2" s="116" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="3" spans="2:23" ht="17" thickBot="1"/>
     <row r="4" spans="2:23" ht="17" thickBot="1">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="155" t="s">
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="155" t="s">
+      <c r="G4" s="253"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="155" t="s">
+      <c r="J4" s="253"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="156"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="155" t="s">
+      <c r="M4" s="253"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="155" t="s">
+      <c r="P4" s="253"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="156"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="155" t="s">
+      <c r="S4" s="253"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="156"/>
-      <c r="W4" s="157"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="254"/>
     </row>
     <row r="5" spans="2:23">
-      <c r="B5" s="153"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="136"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="245"/>
       <c r="R5" s="8">
         <v>1</v>
       </c>
@@ -3962,22 +3984,22 @@
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="2:23" ht="17" thickBot="1">
-      <c r="B6" s="153"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="139"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="239"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="247"/>
+      <c r="Q6" s="248"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12" t="s">
         <v>113</v>
@@ -3990,22 +4012,22 @@
       <c r="W6" s="31"/>
     </row>
     <row r="7" spans="2:23" ht="17" thickBot="1">
-      <c r="B7" s="153"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="241"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="249"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="251"/>
       <c r="R7" s="14"/>
       <c r="S7" s="15"/>
       <c r="T7" s="132"/>
@@ -4014,7 +4036,7 @@
       <c r="W7" s="133"/>
     </row>
     <row r="8" spans="2:23">
-      <c r="B8" s="153"/>
+      <c r="B8" s="256"/>
       <c r="C8" s="44">
         <v>3</v>
       </c>
@@ -4052,7 +4074,7 @@
       <c r="W8" s="54"/>
     </row>
     <row r="9" spans="2:23" ht="17" thickBot="1">
-      <c r="B9" s="153"/>
+      <c r="B9" s="256"/>
       <c r="C9" s="47"/>
       <c r="D9" s="48" t="s">
         <v>130</v>
@@ -4090,7 +4112,7 @@
       <c r="W9" s="56"/>
     </row>
     <row r="10" spans="2:23" ht="17" thickBot="1">
-      <c r="B10" s="153"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="132"/>
@@ -4114,7 +4136,7 @@
       <c r="W10" s="133"/>
     </row>
     <row r="11" spans="2:23">
-      <c r="B11" s="153"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="62">
         <v>10</v>
       </c>
@@ -4155,7 +4177,7 @@
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="2:23" ht="17" thickBot="1">
-      <c r="B12" s="153"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="65"/>
       <c r="D12" s="66" t="s">
         <v>137</v>
@@ -4193,7 +4215,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="2:23" ht="17" thickBot="1">
-      <c r="B13" s="153"/>
+      <c r="B13" s="256"/>
       <c r="C13" s="68"/>
       <c r="D13" s="69"/>
       <c r="E13" s="132"/>
@@ -4217,7 +4239,7 @@
       <c r="W13" s="133"/>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="153"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="34">
         <f>C11+7</f>
         <v>17</v>
@@ -4262,7 +4284,7 @@
       <c r="W14" s="71"/>
     </row>
     <row r="15" spans="2:23" ht="17" thickBot="1">
-      <c r="B15" s="153"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="37"/>
       <c r="D15" s="30" t="s">
         <v>124</v>
@@ -4300,7 +4322,7 @@
       <c r="W15" s="73"/>
     </row>
     <row r="16" spans="2:23" ht="17" thickBot="1">
-      <c r="B16" s="153"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="39"/>
       <c r="D16" s="40"/>
       <c r="E16" s="132"/>
@@ -4324,7 +4346,7 @@
       <c r="W16" s="133"/>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="153"/>
+      <c r="B17" s="256"/>
       <c r="C17" s="8">
         <f>C14+7</f>
         <v>24</v>
@@ -4369,7 +4391,7 @@
       <c r="W17" s="71"/>
     </row>
     <row r="18" spans="2:23" ht="17" thickBot="1">
-      <c r="B18" s="153"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
         <v>118</v>
@@ -4407,7 +4429,7 @@
       <c r="W18" s="73"/>
     </row>
     <row r="19" spans="2:23" ht="17" thickBot="1">
-      <c r="B19" s="154"/>
+      <c r="B19" s="257"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="132"/>
@@ -4432,47 +4454,47 @@
     </row>
     <row r="21" spans="2:23" ht="17" thickBot="1"/>
     <row r="22" spans="2:23" ht="17" thickBot="1">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="155" t="s">
+      <c r="D22" s="253"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="156"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="155" t="s">
+      <c r="G22" s="253"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="156"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="155" t="s">
+      <c r="J22" s="253"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="155" t="s">
+      <c r="M22" s="253"/>
+      <c r="N22" s="254"/>
+      <c r="O22" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="155" t="s">
+      <c r="P22" s="253"/>
+      <c r="Q22" s="254"/>
+      <c r="R22" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="156"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="155" t="s">
+      <c r="S22" s="253"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="V22" s="156"/>
-      <c r="W22" s="157"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="254"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="153"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="8">
         <v>1</v>
       </c>
@@ -4510,7 +4532,7 @@
       <c r="W23" s="18"/>
     </row>
     <row r="24" spans="2:23" ht="17" thickBot="1">
-      <c r="B24" s="153"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12" t="s">
         <v>119</v>
@@ -4548,7 +4570,7 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" ht="17" thickBot="1">
-      <c r="B25" s="153"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="132"/>
@@ -4572,7 +4594,7 @@
       <c r="W25" s="133"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="153"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="34">
         <f>C23+7</f>
         <v>8</v>
@@ -4603,21 +4625,21 @@
       </c>
       <c r="P26" s="107"/>
       <c r="Q26" s="108"/>
-      <c r="R26" s="242">
+      <c r="R26" s="218">
         <f>R23+7</f>
         <v>13</v>
       </c>
-      <c r="S26" s="243"/>
-      <c r="T26" s="244"/>
-      <c r="U26" s="158">
+      <c r="S26" s="219"/>
+      <c r="T26" s="220"/>
+      <c r="U26" s="134">
         <f>U23+7</f>
         <v>14</v>
       </c>
-      <c r="V26" s="166"/>
-      <c r="W26" s="167"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="143"/>
     </row>
     <row r="27" spans="2:23" ht="17" thickBot="1">
-      <c r="B27" s="153"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="37"/>
       <c r="D27" s="30" t="s">
         <v>110</v>
@@ -4643,19 +4665,19 @@
         <v>109</v>
       </c>
       <c r="Q27" s="110"/>
-      <c r="R27" s="245"/>
-      <c r="S27" s="246" t="s">
+      <c r="R27" s="221"/>
+      <c r="S27" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="247"/>
-      <c r="U27" s="168"/>
-      <c r="V27" s="162" t="s">
+      <c r="T27" s="223"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="W27" s="169"/>
+      <c r="W27" s="145"/>
     </row>
     <row r="28" spans="2:23" ht="17" thickBot="1">
-      <c r="B28" s="153"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="132"/>
@@ -4671,804 +4693,792 @@
       <c r="O28" s="111"/>
       <c r="P28" s="112"/>
       <c r="Q28" s="132"/>
-      <c r="R28" s="248"/>
-      <c r="S28" s="249"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="225"/>
       <c r="T28" s="132"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="171"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="147"/>
       <c r="W28" s="133"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="153"/>
-      <c r="C29" s="242">
+      <c r="B29" s="256"/>
+      <c r="C29" s="218">
         <f>C26+7</f>
         <v>15</v>
       </c>
-      <c r="D29" s="243"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="158">
+      <c r="D29" s="219"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="134">
         <f>F26+7</f>
         <v>16</v>
       </c>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="242">
+      <c r="G29" s="135"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="218">
         <f>I26+7</f>
         <v>17</v>
       </c>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="158">
+      <c r="J29" s="226"/>
+      <c r="K29" s="227"/>
+      <c r="L29" s="134">
         <f>L26+7</f>
         <v>18</v>
       </c>
-      <c r="M29" s="166"/>
-      <c r="N29" s="167"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="143"/>
       <c r="O29" s="117">
         <f>O26+7</f>
         <v>19</v>
       </c>
       <c r="P29" s="118"/>
       <c r="Q29" s="119"/>
-      <c r="R29" s="173">
+      <c r="R29" s="149">
         <f>R26+7</f>
         <v>20</v>
       </c>
-      <c r="S29" s="174"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="181">
+      <c r="S29" s="150"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="157">
         <f>U26+7</f>
         <v>21</v>
       </c>
-      <c r="V29" s="182"/>
-      <c r="W29" s="183"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="159"/>
     </row>
     <row r="30" spans="2:23" ht="17" thickBot="1">
-      <c r="B30" s="153"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="246" t="s">
+      <c r="B30" s="256"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="247"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="162" t="s">
+      <c r="E30" s="223"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="H30" s="163"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="246" t="s">
+      <c r="H30" s="139"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="253"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="162" t="s">
+      <c r="K30" s="229"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="N30" s="169"/>
+      <c r="N30" s="145"/>
       <c r="O30" s="120"/>
       <c r="P30" s="121" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="122"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="177" t="s">
+      <c r="R30" s="152"/>
+      <c r="S30" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="T30" s="178"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="185" t="s">
+      <c r="T30" s="154"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="161" t="s">
         <v>170</v>
       </c>
-      <c r="W30" s="186"/>
+      <c r="W30" s="162"/>
     </row>
     <row r="31" spans="2:23" ht="17" thickBot="1">
-      <c r="B31" s="153"/>
-      <c r="C31" s="248"/>
-      <c r="D31" s="249"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="225"/>
       <c r="E31" s="132"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="165"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="132"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="255"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="231"/>
       <c r="K31" s="133"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="171"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="147"/>
       <c r="N31" s="133"/>
       <c r="O31" s="123"/>
       <c r="P31" s="124"/>
       <c r="Q31" s="132"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="180"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="156"/>
       <c r="T31" s="132"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="188"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="164"/>
       <c r="W31" s="133"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="153"/>
-      <c r="C32" s="196">
+      <c r="B32" s="256"/>
+      <c r="C32" s="172">
         <f>C29+7</f>
         <v>22</v>
       </c>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="211">
+      <c r="D32" s="180"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="187">
         <f>F29+7</f>
         <v>23</v>
       </c>
-      <c r="G32" s="212"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="219">
+      <c r="G32" s="188"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="195">
         <f>I29+7</f>
         <v>24</v>
       </c>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="234">
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="210">
         <f>L29+7</f>
         <v>25</v>
       </c>
-      <c r="M32" s="235"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="173">
+      <c r="M32" s="211"/>
+      <c r="N32" s="212"/>
+      <c r="O32" s="149">
         <f>O29+7</f>
         <v>26</v>
       </c>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="181">
+      <c r="P32" s="150"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="157">
         <f>R29+7</f>
         <v>27</v>
       </c>
-      <c r="S32" s="189"/>
-      <c r="T32" s="190"/>
-      <c r="U32" s="196">
+      <c r="S32" s="165"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="172">
         <f>U29+7</f>
         <v>28</v>
       </c>
-      <c r="V32" s="197"/>
-      <c r="W32" s="198"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="174"/>
     </row>
     <row r="33" spans="2:23" ht="17" thickBot="1">
-      <c r="B33" s="153"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="207" t="s">
+      <c r="B33" s="256"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="208"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="215" t="s">
+      <c r="E33" s="184"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="H33" s="216"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="223" t="s">
+      <c r="H33" s="192"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="K33" s="224"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="238" t="s">
+      <c r="K33" s="200"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="N33" s="239"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="177" t="s">
+      <c r="N33" s="215"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="Q33" s="178"/>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192" t="s">
+      <c r="Q33" s="154"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="T33" s="193"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="200" t="s">
+      <c r="T33" s="169"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="176" t="s">
         <v>171</v>
       </c>
-      <c r="W33" s="201"/>
+      <c r="W33" s="177"/>
     </row>
     <row r="34" spans="2:23" ht="17" thickBot="1">
-      <c r="B34" s="153"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="210"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
       <c r="E34" s="132"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="218"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
       <c r="H34" s="132"/>
-      <c r="I34" s="225"/>
-      <c r="J34" s="226"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
       <c r="K34" s="133"/>
-      <c r="L34" s="240"/>
-      <c r="M34" s="241"/>
+      <c r="L34" s="216"/>
+      <c r="M34" s="217"/>
       <c r="N34" s="133"/>
-      <c r="O34" s="179"/>
-      <c r="P34" s="180"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="156"/>
       <c r="Q34" s="132"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="195"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="171"/>
       <c r="T34" s="132"/>
-      <c r="U34" s="202"/>
-      <c r="V34" s="203"/>
+      <c r="U34" s="178"/>
+      <c r="V34" s="179"/>
       <c r="W34" s="133"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="B35" s="153"/>
-      <c r="C35" s="211">
+      <c r="B35" s="256"/>
+      <c r="C35" s="187">
         <f>C32+7</f>
         <v>29</v>
       </c>
-      <c r="D35" s="212"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="219">
+      <c r="D35" s="188"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="195">
         <f>F32+7</f>
         <v>30</v>
       </c>
-      <c r="G35" s="227"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="234">
+      <c r="G35" s="203"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="210">
         <f>I32+7</f>
         <v>31</v>
       </c>
-      <c r="J35" s="235"/>
-      <c r="K35" s="236"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="134"/>
-      <c r="S35" s="135"/>
-      <c r="T35" s="136"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="145"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="244"/>
+      <c r="N35" s="245"/>
+      <c r="O35" s="243"/>
+      <c r="P35" s="244"/>
+      <c r="Q35" s="245"/>
+      <c r="R35" s="243"/>
+      <c r="S35" s="244"/>
+      <c r="T35" s="245"/>
+      <c r="U35" s="234"/>
+      <c r="V35" s="235"/>
+      <c r="W35" s="236"/>
     </row>
     <row r="36" spans="2:23" ht="17" thickBot="1">
-      <c r="B36" s="153"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="215" t="s">
+      <c r="B36" s="256"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="216"/>
-      <c r="F36" s="229"/>
-      <c r="G36" s="230" t="s">
+      <c r="E36" s="192"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="231"/>
-      <c r="I36" s="237"/>
-      <c r="J36" s="238" t="s">
+      <c r="H36" s="207"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="K36" s="239"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="138"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="138"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="146"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="148"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="246"/>
+      <c r="M36" s="247"/>
+      <c r="N36" s="248"/>
+      <c r="O36" s="246"/>
+      <c r="P36" s="247"/>
+      <c r="Q36" s="248"/>
+      <c r="R36" s="246"/>
+      <c r="S36" s="247"/>
+      <c r="T36" s="248"/>
+      <c r="U36" s="237"/>
+      <c r="V36" s="238"/>
+      <c r="W36" s="239"/>
     </row>
     <row r="37" spans="2:23" ht="17" thickBot="1">
-      <c r="B37" s="154"/>
-      <c r="C37" s="217"/>
-      <c r="D37" s="218"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="194"/>
       <c r="E37" s="132"/>
-      <c r="F37" s="232"/>
-      <c r="G37" s="233"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="209"/>
       <c r="H37" s="132"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="241"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="217"/>
       <c r="K37" s="133"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="142"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="141"/>
-      <c r="T37" s="142"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="150"/>
-      <c r="W37" s="151"/>
+      <c r="L37" s="249"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="251"/>
+      <c r="O37" s="249"/>
+      <c r="P37" s="250"/>
+      <c r="Q37" s="251"/>
+      <c r="R37" s="249"/>
+      <c r="S37" s="250"/>
+      <c r="T37" s="251"/>
+      <c r="U37" s="240"/>
+      <c r="V37" s="241"/>
+      <c r="W37" s="242"/>
     </row>
     <row r="39" spans="2:23" ht="17" thickBot="1"/>
     <row r="40" spans="2:23" ht="17" thickBot="1">
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="255" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="155" t="s">
+      <c r="C40" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="155" t="s">
+      <c r="D40" s="253"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="155" t="s">
+      <c r="G40" s="253"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="156"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="155" t="s">
+      <c r="J40" s="253"/>
+      <c r="K40" s="254"/>
+      <c r="L40" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="156"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="155" t="s">
+      <c r="M40" s="253"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="157"/>
-      <c r="R40" s="155" t="s">
+      <c r="P40" s="253"/>
+      <c r="Q40" s="254"/>
+      <c r="R40" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="156"/>
-      <c r="T40" s="157"/>
-      <c r="U40" s="155" t="s">
+      <c r="S40" s="253"/>
+      <c r="T40" s="254"/>
+      <c r="U40" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="156"/>
-      <c r="W40" s="157"/>
+      <c r="V40" s="253"/>
+      <c r="W40" s="254"/>
     </row>
     <row r="41" spans="2:23">
-      <c r="B41" s="153"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="257">
+      <c r="B41" s="256"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="243"/>
+      <c r="G41" s="244"/>
+      <c r="H41" s="245"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="236"/>
+      <c r="L41" s="233">
         <v>1</v>
       </c>
-      <c r="M41" s="250"/>
-      <c r="N41" s="251"/>
-      <c r="O41" s="158">
+      <c r="M41" s="226"/>
+      <c r="N41" s="227"/>
+      <c r="O41" s="134">
         <v>2</v>
       </c>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="160"/>
-      <c r="R41" s="242">
+      <c r="P41" s="135"/>
+      <c r="Q41" s="136"/>
+      <c r="R41" s="218">
         <v>3</v>
       </c>
-      <c r="S41" s="243"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="172">
+      <c r="S41" s="219"/>
+      <c r="T41" s="220"/>
+      <c r="U41" s="148">
         <v>4</v>
       </c>
-      <c r="V41" s="166"/>
-      <c r="W41" s="167"/>
+      <c r="V41" s="142"/>
+      <c r="W41" s="143"/>
     </row>
     <row r="42" spans="2:23" ht="17" thickBot="1">
-      <c r="B42" s="153"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="252"/>
-      <c r="M42" s="246" t="s">
+      <c r="B42" s="256"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="248"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="248"/>
+      <c r="I42" s="237"/>
+      <c r="J42" s="238"/>
+      <c r="K42" s="239"/>
+      <c r="L42" s="228"/>
+      <c r="M42" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="N42" s="253"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="162" t="s">
+      <c r="N42" s="229"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="245"/>
-      <c r="S42" s="246" t="s">
+      <c r="Q42" s="139"/>
+      <c r="R42" s="221"/>
+      <c r="S42" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="T42" s="247"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="162" t="s">
+      <c r="T42" s="223"/>
+      <c r="U42" s="144"/>
+      <c r="V42" s="138" t="s">
         <v>164</v>
       </c>
-      <c r="W42" s="169"/>
+      <c r="W42" s="145"/>
     </row>
     <row r="43" spans="2:23" ht="17" thickBot="1">
-      <c r="B43" s="153"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="254"/>
-      <c r="M43" s="255"/>
-      <c r="N43" s="256"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="165"/>
+      <c r="B43" s="256"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="251"/>
+      <c r="F43" s="249"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="251"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="242"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="232"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="141"/>
       <c r="Q43" s="132"/>
-      <c r="R43" s="248"/>
-      <c r="S43" s="249"/>
+      <c r="R43" s="224"/>
+      <c r="S43" s="225"/>
       <c r="T43" s="132"/>
-      <c r="U43" s="170"/>
-      <c r="V43" s="171"/>
+      <c r="U43" s="146"/>
+      <c r="V43" s="147"/>
       <c r="W43" s="133"/>
     </row>
     <row r="44" spans="2:23">
-      <c r="B44" s="153"/>
-      <c r="C44" s="242">
+      <c r="B44" s="256"/>
+      <c r="C44" s="218">
         <v>5</v>
       </c>
-      <c r="D44" s="243"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="158">
+      <c r="D44" s="219"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="134">
         <v>6</v>
       </c>
-      <c r="G44" s="159"/>
-      <c r="H44" s="160"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="136"/>
       <c r="I44" s="117">
         <v>7</v>
       </c>
       <c r="J44" s="125"/>
       <c r="K44" s="126"/>
-      <c r="L44" s="242">
+      <c r="L44" s="218">
         <v>8</v>
       </c>
-      <c r="M44" s="250"/>
-      <c r="N44" s="251"/>
-      <c r="O44" s="158">
+      <c r="M44" s="226"/>
+      <c r="N44" s="227"/>
+      <c r="O44" s="134">
         <f>O41+7</f>
         <v>9</v>
       </c>
-      <c r="P44" s="159"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="242">
+      <c r="P44" s="135"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="218">
         <f>R41+7</f>
         <v>10</v>
       </c>
-      <c r="S44" s="243"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="158">
+      <c r="S44" s="219"/>
+      <c r="T44" s="220"/>
+      <c r="U44" s="134">
         <f>U41+7</f>
         <v>11</v>
       </c>
-      <c r="V44" s="166"/>
-      <c r="W44" s="167"/>
+      <c r="V44" s="142"/>
+      <c r="W44" s="143"/>
     </row>
     <row r="45" spans="2:23" ht="17" thickBot="1">
-      <c r="B45" s="153"/>
-      <c r="C45" s="245"/>
-      <c r="D45" s="246" t="s">
+      <c r="B45" s="256"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="247"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="162" t="s">
+      <c r="E45" s="223"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="163"/>
+      <c r="H45" s="139"/>
       <c r="I45" s="127"/>
       <c r="J45" s="128" t="s">
         <v>11</v>
       </c>
       <c r="K45" s="129"/>
-      <c r="L45" s="252"/>
-      <c r="M45" s="246" t="s">
+      <c r="L45" s="228"/>
+      <c r="M45" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="N45" s="253"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="162" t="s">
+      <c r="N45" s="229"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="245"/>
-      <c r="S45" s="246" t="s">
+      <c r="Q45" s="139"/>
+      <c r="R45" s="221"/>
+      <c r="S45" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="T45" s="247"/>
-      <c r="U45" s="168"/>
-      <c r="V45" s="162" t="s">
+      <c r="T45" s="223"/>
+      <c r="U45" s="144"/>
+      <c r="V45" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="W45" s="169"/>
+      <c r="W45" s="145"/>
     </row>
     <row r="46" spans="2:23" ht="17" thickBot="1">
-      <c r="B46" s="153"/>
-      <c r="C46" s="248"/>
-      <c r="D46" s="249"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="225"/>
       <c r="E46" s="132"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="165"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="141"/>
       <c r="H46" s="132"/>
       <c r="I46" s="130"/>
       <c r="J46" s="131"/>
       <c r="K46" s="133"/>
-      <c r="L46" s="254"/>
-      <c r="M46" s="255"/>
-      <c r="N46" s="256"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="165"/>
+      <c r="L46" s="230"/>
+      <c r="M46" s="231"/>
+      <c r="N46" s="232"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="141"/>
       <c r="Q46" s="132"/>
-      <c r="R46" s="248"/>
-      <c r="S46" s="249"/>
+      <c r="R46" s="224"/>
+      <c r="S46" s="225"/>
       <c r="T46" s="132"/>
-      <c r="U46" s="170"/>
-      <c r="V46" s="171"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="147"/>
       <c r="W46" s="133"/>
     </row>
     <row r="47" spans="2:23">
-      <c r="B47" s="153"/>
-      <c r="C47" s="242">
+      <c r="B47" s="256"/>
+      <c r="C47" s="218">
         <f>C44+7</f>
         <v>12</v>
       </c>
-      <c r="D47" s="243"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="158">
+      <c r="D47" s="219"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="134">
         <f>F44+7</f>
         <v>13</v>
       </c>
-      <c r="G47" s="159"/>
-      <c r="H47" s="160"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="136"/>
       <c r="I47" s="117">
         <f>I44+7</f>
         <v>14</v>
       </c>
       <c r="J47" s="125"/>
       <c r="K47" s="126"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="136"/>
-      <c r="O47" s="134"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="136"/>
-      <c r="R47" s="134"/>
-      <c r="S47" s="135"/>
-      <c r="T47" s="136"/>
-      <c r="U47" s="143"/>
-      <c r="V47" s="144"/>
-      <c r="W47" s="145"/>
+      <c r="L47" s="243"/>
+      <c r="M47" s="244"/>
+      <c r="N47" s="245"/>
+      <c r="O47" s="243"/>
+      <c r="P47" s="244"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="243"/>
+      <c r="S47" s="244"/>
+      <c r="T47" s="245"/>
+      <c r="U47" s="234"/>
+      <c r="V47" s="235"/>
+      <c r="W47" s="236"/>
     </row>
     <row r="48" spans="2:23" ht="17" thickBot="1">
-      <c r="B48" s="153"/>
-      <c r="C48" s="245"/>
-      <c r="D48" s="246" t="s">
+      <c r="B48" s="256"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="247"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="162" t="s">
+      <c r="E48" s="223"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="163"/>
+      <c r="H48" s="139"/>
       <c r="I48" s="127"/>
       <c r="J48" s="128" t="s">
         <v>12</v>
       </c>
       <c r="K48" s="129"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="138"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="137"/>
-      <c r="S48" s="138"/>
-      <c r="T48" s="139"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="147"/>
-      <c r="W48" s="148"/>
+      <c r="L48" s="246"/>
+      <c r="M48" s="247"/>
+      <c r="N48" s="248"/>
+      <c r="O48" s="246"/>
+      <c r="P48" s="247"/>
+      <c r="Q48" s="248"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="247"/>
+      <c r="T48" s="248"/>
+      <c r="U48" s="237"/>
+      <c r="V48" s="238"/>
+      <c r="W48" s="239"/>
     </row>
     <row r="49" spans="2:23" ht="17" thickBot="1">
-      <c r="B49" s="153"/>
-      <c r="C49" s="248"/>
-      <c r="D49" s="249"/>
+      <c r="B49" s="256"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="225"/>
       <c r="E49" s="132"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="165"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="141"/>
       <c r="H49" s="132"/>
       <c r="I49" s="130"/>
       <c r="J49" s="131"/>
       <c r="K49" s="133"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="141"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="141"/>
-      <c r="Q49" s="142"/>
-      <c r="R49" s="140"/>
-      <c r="S49" s="141"/>
-      <c r="T49" s="142"/>
-      <c r="U49" s="149"/>
-      <c r="V49" s="150"/>
-      <c r="W49" s="151"/>
+      <c r="L49" s="249"/>
+      <c r="M49" s="250"/>
+      <c r="N49" s="251"/>
+      <c r="O49" s="249"/>
+      <c r="P49" s="250"/>
+      <c r="Q49" s="251"/>
+      <c r="R49" s="249"/>
+      <c r="S49" s="250"/>
+      <c r="T49" s="251"/>
+      <c r="U49" s="240"/>
+      <c r="V49" s="241"/>
+      <c r="W49" s="242"/>
     </row>
     <row r="50" spans="2:23">
-      <c r="B50" s="153"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="136"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="136"/>
-      <c r="U50" s="143"/>
-      <c r="V50" s="144"/>
-      <c r="W50" s="145"/>
+      <c r="B50" s="256"/>
+      <c r="C50" s="243"/>
+      <c r="D50" s="244"/>
+      <c r="E50" s="245"/>
+      <c r="F50" s="243"/>
+      <c r="G50" s="244"/>
+      <c r="H50" s="245"/>
+      <c r="I50" s="234"/>
+      <c r="J50" s="235"/>
+      <c r="K50" s="236"/>
+      <c r="L50" s="243"/>
+      <c r="M50" s="244"/>
+      <c r="N50" s="245"/>
+      <c r="O50" s="243"/>
+      <c r="P50" s="244"/>
+      <c r="Q50" s="245"/>
+      <c r="R50" s="243"/>
+      <c r="S50" s="244"/>
+      <c r="T50" s="245"/>
+      <c r="U50" s="234"/>
+      <c r="V50" s="235"/>
+      <c r="W50" s="236"/>
     </row>
     <row r="51" spans="2:23">
-      <c r="B51" s="153"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="137"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="139"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="138"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="147"/>
-      <c r="W51" s="148"/>
+      <c r="B51" s="256"/>
+      <c r="C51" s="246"/>
+      <c r="D51" s="247"/>
+      <c r="E51" s="248"/>
+      <c r="F51" s="246"/>
+      <c r="G51" s="247"/>
+      <c r="H51" s="248"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
+      <c r="K51" s="239"/>
+      <c r="L51" s="246"/>
+      <c r="M51" s="247"/>
+      <c r="N51" s="248"/>
+      <c r="O51" s="246"/>
+      <c r="P51" s="247"/>
+      <c r="Q51" s="248"/>
+      <c r="R51" s="246"/>
+      <c r="S51" s="247"/>
+      <c r="T51" s="248"/>
+      <c r="U51" s="237"/>
+      <c r="V51" s="238"/>
+      <c r="W51" s="239"/>
     </row>
     <row r="52" spans="2:23" ht="17" thickBot="1">
-      <c r="B52" s="153"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="141"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="140"/>
-      <c r="S52" s="141"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="149"/>
-      <c r="V52" s="150"/>
-      <c r="W52" s="151"/>
+      <c r="B52" s="256"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="249"/>
+      <c r="G52" s="250"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="240"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="242"/>
+      <c r="L52" s="249"/>
+      <c r="M52" s="250"/>
+      <c r="N52" s="251"/>
+      <c r="O52" s="249"/>
+      <c r="P52" s="250"/>
+      <c r="Q52" s="251"/>
+      <c r="R52" s="249"/>
+      <c r="S52" s="250"/>
+      <c r="T52" s="251"/>
+      <c r="U52" s="240"/>
+      <c r="V52" s="241"/>
+      <c r="W52" s="242"/>
     </row>
     <row r="53" spans="2:23">
-      <c r="B53" s="153"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="134"/>
-      <c r="P53" s="135"/>
-      <c r="Q53" s="136"/>
-      <c r="R53" s="134"/>
-      <c r="S53" s="135"/>
-      <c r="T53" s="136"/>
-      <c r="U53" s="143"/>
-      <c r="V53" s="144"/>
-      <c r="W53" s="145"/>
+      <c r="B53" s="256"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="245"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="245"/>
+      <c r="I53" s="234"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="236"/>
+      <c r="L53" s="243"/>
+      <c r="M53" s="244"/>
+      <c r="N53" s="245"/>
+      <c r="O53" s="243"/>
+      <c r="P53" s="244"/>
+      <c r="Q53" s="245"/>
+      <c r="R53" s="243"/>
+      <c r="S53" s="244"/>
+      <c r="T53" s="245"/>
+      <c r="U53" s="234"/>
+      <c r="V53" s="235"/>
+      <c r="W53" s="236"/>
     </row>
     <row r="54" spans="2:23">
-      <c r="B54" s="153"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="137"/>
-      <c r="M54" s="138"/>
-      <c r="N54" s="139"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="138"/>
-      <c r="T54" s="139"/>
-      <c r="U54" s="146"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="148"/>
+      <c r="B54" s="256"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="247"/>
+      <c r="E54" s="248"/>
+      <c r="F54" s="246"/>
+      <c r="G54" s="247"/>
+      <c r="H54" s="248"/>
+      <c r="I54" s="237"/>
+      <c r="J54" s="238"/>
+      <c r="K54" s="239"/>
+      <c r="L54" s="246"/>
+      <c r="M54" s="247"/>
+      <c r="N54" s="248"/>
+      <c r="O54" s="246"/>
+      <c r="P54" s="247"/>
+      <c r="Q54" s="248"/>
+      <c r="R54" s="246"/>
+      <c r="S54" s="247"/>
+      <c r="T54" s="248"/>
+      <c r="U54" s="237"/>
+      <c r="V54" s="238"/>
+      <c r="W54" s="239"/>
     </row>
     <row r="55" spans="2:23" ht="17" thickBot="1">
-      <c r="B55" s="154"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="151"/>
-      <c r="L55" s="140"/>
-      <c r="M55" s="141"/>
-      <c r="N55" s="142"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="142"/>
-      <c r="R55" s="140"/>
-      <c r="S55" s="141"/>
-      <c r="T55" s="142"/>
-      <c r="U55" s="149"/>
-      <c r="V55" s="150"/>
-      <c r="W55" s="151"/>
+      <c r="B55" s="257"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="250"/>
+      <c r="E55" s="251"/>
+      <c r="F55" s="249"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="251"/>
+      <c r="I55" s="240"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="242"/>
+      <c r="L55" s="249"/>
+      <c r="M55" s="250"/>
+      <c r="N55" s="251"/>
+      <c r="O55" s="249"/>
+      <c r="P55" s="250"/>
+      <c r="Q55" s="251"/>
+      <c r="R55" s="249"/>
+      <c r="S55" s="250"/>
+      <c r="T55" s="251"/>
+      <c r="U55" s="240"/>
+      <c r="V55" s="241"/>
+      <c r="W55" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="U53:W55"/>
-    <mergeCell ref="O50:Q52"/>
-    <mergeCell ref="R50:T52"/>
-    <mergeCell ref="L53:N55"/>
-    <mergeCell ref="O53:Q55"/>
-    <mergeCell ref="R53:T55"/>
-    <mergeCell ref="U35:W37"/>
-    <mergeCell ref="R35:T37"/>
-    <mergeCell ref="L35:N37"/>
-    <mergeCell ref="O35:Q37"/>
-    <mergeCell ref="U50:W52"/>
-    <mergeCell ref="U47:W49"/>
-    <mergeCell ref="O47:Q49"/>
-    <mergeCell ref="R47:T49"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L47:N49"/>
-    <mergeCell ref="L50:N52"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="F5:H7"/>
-    <mergeCell ref="I5:K7"/>
-    <mergeCell ref="L5:N7"/>
-    <mergeCell ref="O5:Q7"/>
+    <mergeCell ref="F50:H52"/>
+    <mergeCell ref="I50:K52"/>
+    <mergeCell ref="B40:B55"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="C50:E52"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="F53:H55"/>
+    <mergeCell ref="I53:K55"/>
+    <mergeCell ref="C41:E43"/>
+    <mergeCell ref="F41:H43"/>
+    <mergeCell ref="I41:K43"/>
     <mergeCell ref="U4:W4"/>
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B22:B37"/>
@@ -5485,19 +5495,31 @@
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R4:T4"/>
-    <mergeCell ref="F50:H52"/>
-    <mergeCell ref="I50:K52"/>
-    <mergeCell ref="B40:B55"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="C50:E52"/>
-    <mergeCell ref="C53:E55"/>
-    <mergeCell ref="F53:H55"/>
-    <mergeCell ref="I53:K55"/>
-    <mergeCell ref="C41:E43"/>
-    <mergeCell ref="F41:H43"/>
-    <mergeCell ref="I41:K43"/>
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="I5:K7"/>
+    <mergeCell ref="L5:N7"/>
+    <mergeCell ref="O5:Q7"/>
+    <mergeCell ref="U35:W37"/>
+    <mergeCell ref="R35:T37"/>
+    <mergeCell ref="L35:N37"/>
+    <mergeCell ref="O35:Q37"/>
+    <mergeCell ref="U50:W52"/>
+    <mergeCell ref="U47:W49"/>
+    <mergeCell ref="O47:Q49"/>
+    <mergeCell ref="R47:T49"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L47:N49"/>
+    <mergeCell ref="L50:N52"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="U53:W55"/>
+    <mergeCell ref="O50:Q52"/>
+    <mergeCell ref="R50:T52"/>
+    <mergeCell ref="L53:N55"/>
+    <mergeCell ref="O53:Q55"/>
+    <mergeCell ref="R53:T55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5530,7 +5552,7 @@
   <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
